--- a/Assignment 1.xlsx
+++ b/Assignment 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jazzj\Documents\CG2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D181E6E-AE54-47E1-89FC-53FD08C2D7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8646E3-D7B0-41BF-9971-D08E751E4EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8235" yWindow="-16320" windowWidth="29040" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment generation" sheetId="1" r:id="rId1"/>
@@ -525,30 +525,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -576,50 +576,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>201706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>776386</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1640182</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C443CF35-4AE0-4DC9-801B-A9718B044E23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2386853" y="6017559"/>
-          <a:ext cx="2715004" cy="1438476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -647,7 +603,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -656,6 +612,358 @@
         <a:xfrm>
           <a:off x="1948296" y="329046"/>
           <a:ext cx="4029563" cy="4805796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>972553</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF4929C-C405-05BD-02DA-182AF236C96A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1955132" y="5842837"/>
+          <a:ext cx="4045818" cy="972552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>809626</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>745000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5181601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF564A0B-432F-B78B-86EA-F320FFC03248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781301" y="8001001"/>
+          <a:ext cx="2621424" cy="5181600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1352471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0460D30-0451-E189-B14D-CDBF1A1746E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="20554950"/>
+          <a:ext cx="1971675" cy="1352471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1232121</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175526</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1182060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E808DA3-ED7F-7E3B-3235-5912893D64C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3191550" y="13552714"/>
+          <a:ext cx="1624012" cy="1182060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>583058</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>816080</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E3CD8F-DB27-8FCD-3EBC-DC9C230C2005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2542487" y="15063107"/>
+          <a:ext cx="2913629" cy="5197929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>528630</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812587</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>5189083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A3CBBE-78BB-8368-F292-21835326B510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2488059" y="22274893"/>
+          <a:ext cx="2964564" cy="5189083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>178249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>20928</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>967464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F4ECAA3-36C4-EFC2-3EFE-3521DEA6BB05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8776607" y="13730963"/>
+          <a:ext cx="2960071" cy="789215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5306</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>5184321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DF3D86-92BD-42EA-89F4-B3DB447EA362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8776608" y="22274893"/>
+          <a:ext cx="2944448" cy="5184321"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -957,7 +1265,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1180,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1205,10 +1513,10 @@
     </row>
     <row r="2" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="5"/>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="8"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1220,7 +1528,7 @@
     <row r="3" spans="3:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="5"/>
       <c r="D3" s="35"/>
-      <c r="E3" s="37"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
       <c r="H3" s="7"/>
@@ -1240,10 +1548,10 @@
     </row>
     <row r="5" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="5"/>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="8"/>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
@@ -1253,7 +1561,7 @@
     <row r="6" spans="3:13" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
       <c r="D6" s="35"/>
-      <c r="E6" s="37"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="16"/>
       <c r="G6" s="12"/>
       <c r="H6" s="15"/>
@@ -1273,10 +1581,10 @@
     </row>
     <row r="8" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="5"/>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="17"/>
       <c r="G8" s="12"/>
       <c r="H8" s="15"/>
@@ -1287,7 +1595,7 @@
     <row r="9" spans="3:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="5"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="37"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="17"/>
       <c r="G9" s="12"/>
       <c r="H9" s="15"/>
@@ -1307,16 +1615,16 @@
     </row>
     <row r="11" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="5"/>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="42"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="8"/>
       <c r="L11" s="15"/>
       <c r="M11" s="12"/>
@@ -1324,11 +1632,11 @@
     <row r="12" spans="3:13" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="5"/>
       <c r="D12" s="35"/>
-      <c r="E12" s="37"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="35"/>
-      <c r="I12" s="37"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="16"/>
       <c r="K12" s="12"/>
       <c r="L12" s="15"/>
@@ -1348,10 +1656,10 @@
     </row>
     <row r="14" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="5"/>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="44"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="17"/>
       <c r="G14" s="12"/>
       <c r="H14" s="15"/>
@@ -1364,7 +1672,7 @@
     <row r="15" spans="3:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="5"/>
       <c r="D15" s="35"/>
-      <c r="E15" s="37"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="17"/>
       <c r="G15" s="12"/>
       <c r="H15" s="15"/>
@@ -1388,10 +1696,10 @@
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="5"/>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="44"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="18"/>
       <c r="G17" s="12"/>
       <c r="H17" s="15"/>
@@ -1404,7 +1712,7 @@
     <row r="18" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="5"/>
       <c r="D18" s="35"/>
-      <c r="E18" s="37"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="20"/>
       <c r="H18" s="15"/>
       <c r="I18" s="12"/>
@@ -1425,18 +1733,18 @@
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="5"/>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="38" t="s">
+      <c r="E20" s="38"/>
+      <c r="F20" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41" t="s">
+      <c r="G20" s="42"/>
+      <c r="H20" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="42"/>
+      <c r="I20" s="40"/>
       <c r="J20" s="17"/>
       <c r="K20" s="12"/>
       <c r="L20" s="15"/>
@@ -1445,11 +1753,11 @@
     <row r="21" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="5"/>
       <c r="D21" s="35"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="40"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="35"/>
-      <c r="I21" s="37"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="17"/>
       <c r="K21" s="12"/>
       <c r="L21" s="15"/>
@@ -1467,25 +1775,25 @@
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="44"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="9"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="10"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="42"/>
+      <c r="M23" s="40"/>
     </row>
     <row r="24" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="5"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="37"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="6"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -1493,7 +1801,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="23"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="37"/>
+      <c r="M24" s="36"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D25" s="13"/>
@@ -1506,10 +1814,10 @@
     <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="12"/>
       <c r="J26" s="15"/>
       <c r="K26" s="12"/>
@@ -1521,7 +1829,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="35"/>
-      <c r="E27" s="37"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="12"/>
       <c r="J27" s="15"/>
       <c r="K27" s="12"/>
@@ -1539,15 +1847,15 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="44"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="9"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
@@ -1559,10 +1867,10 @@
     </row>
     <row r="30" spans="1:13" ht="322.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="35"/>
-      <c r="B30" s="37"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="25"/>
       <c r="D30" s="35"/>
-      <c r="E30" s="37"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="20"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -1580,44 +1888,44 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="38" t="s">
+      <c r="E32" s="38"/>
+      <c r="F32" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="43" t="s">
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="44"/>
+      <c r="M32" s="38"/>
     </row>
     <row r="33" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="45"/>
-      <c r="B33" s="36"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="17"/>
       <c r="D33" s="35"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="40"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="42"/>
       <c r="L33" s="35"/>
-      <c r="M33" s="36"/>
+      <c r="M33" s="43"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="21"/>
@@ -1629,33 +1937,46 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C35" s="5"/>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="42"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:13" ht="213.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
       <c r="D36" s="35"/>
-      <c r="E36" s="37"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="12"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
       <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
+      <c r="I38" s="43"/>
     </row>
     <row r="91" ht="0.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H11:I11"/>
@@ -1672,25 +1993,12 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Assignment 1.xlsx
+++ b/Assignment 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jazzj\Documents\CG2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8646E3-D7B0-41BF-9971-D08E751E4EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1545D135-185B-4B00-84D3-093A5BDE416E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="-16320" windowWidth="29040" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment generation" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>z = -1</t>
   </si>
@@ -193,16 +193,53 @@
   <si>
     <t>. To be e-mailed to robert.sheehy@mtu.ie before midnight.</t>
   </si>
+  <si>
+    <t>41.73, 36.75, -60.09, -57.97
+41.75, 16.06, -57.08, -54.96
+41.79, -11.53, -53.06, -50.96
+41.82, -32.23, -50.05, -47.95
+22.48, 15.08, -57.26, -55.15
+16.07, 0.96, -55.32, -53.21
+9.63, 14.43, -57.39, -55.28
+-9.67, 34.14, -60.59, -58.47
+-9.65, 13.45, -57.58, -55.46
+-9.61, -14.14, -53.56, -51.46
+-9.58, -34.83, -50.55, -48.45
+45.40, 38.53, -55.22, -53.11
+45.43, 17.84, -52.21, -50.11
+45.47, -9.75, -48.19, -46.10
+45.49, -30.44, -45.18, -43.09
+26.16, 16.86, -52.40, -50.29
+19.75, 2.74, -50.45, -48.35
+13.31, 16.21, -52.52, -50.42
+-5.99, 35.92, -55.72, -53.61
+-5.97, 15.23, -52.71, -50.61
+-5.93, -12.36, -48.69, -46.60
+-5.91, -33.05, -45.68, -43.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1 0  0 0
+     0 1  0 0
+     0 0  1 0
+     0 0 -1 0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -230,6 +267,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -407,25 +451,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -434,43 +479,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -482,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -497,69 +542,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{41019C84-4A30-47AD-8817-CA5F143D4131}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -572,6 +619,1956 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$24:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-0.71985509746420562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.75964337700145557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.82005494505494503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.87215849843587068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.40761559383499546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.30201090020672805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.17420405209840811</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16538395758508637</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17399927875946627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18674698795180722</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19772961816305468</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.85482959894558463</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.90660546797046493</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.9863340563991323</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.0556973775818055</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.52018293895406642</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.40847983453981385</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.26398254660848869</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11173288565566127</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11796087729697688</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.12725321888412017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13558155540261527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$24:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-0.63394859410039672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2922125181950509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22625588697017268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67215849843587061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.27343608340888487</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.8041721480924637E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.26103473227206947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.58388917393535145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.24251712946267578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27477652545666537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7188854489164086</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.72547542835624179</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.35601676312113351</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21149674620390455</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70642840566256671</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.33525551799562536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.6670113753877975E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.32149940499801666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.67002424920723747</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.30092867022327602</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.26523605150214591</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75820142234457433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-088F-470E-A01F-7473059BCD09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1251940159"/>
+        <c:axId val="1251934879"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1251940159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1251934879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1251934879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1251940159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$24:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-0.71985509746420562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.75964337700145557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.82005494505494503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.87215849843587068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.40761559383499546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.30201090020672805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.17420405209840811</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16538395758508637</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17399927875946627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18674698795180722</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19772961816305468</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.85482959894558463</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.90660546797046493</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.9863340563991323</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.0556973775818055</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.52018293895406642</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.40847983453981385</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.26398254660848869</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11173288565566127</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11796087729697688</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.12725321888412017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13558155540261527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$24:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-0.63394859410039672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2922125181950509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22625588697017268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67215849843587061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.27343608340888487</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.8041721480924637E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.26103473227206947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.58388917393535145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.24251712946267578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27477652545666537</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7188854489164086</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.72547542835624179</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.35601676312113351</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21149674620390455</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70642840566256671</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.33525551799562536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.6670113753877975E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.32149940499801666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.67002424920723747</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.30092867022327602</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.26523605150214591</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75820142234457433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9ED3-4DFB-8C0F-3926C910F657}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1251940159"/>
+        <c:axId val="1251934879"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1251940159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1251934879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1251934879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1251940159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,7 +2626,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200</xdr:colOff>
+      <xdr:colOff>199</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>972553</xdr:rowOff>
     </xdr:to>
@@ -762,8 +2759,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>175526</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1182060</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1358</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -970,6 +2967,349 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>207816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1350592</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1160315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C8D9AD-916E-AEB8-1F02-A483F2112DDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1965614" y="28029476"/>
+          <a:ext cx="4017593" cy="952499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>658084</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>699762</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>5186795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE1ACB6-B700-1027-9CD7-CBB8AD0E3A7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2606380" y="29588116"/>
+          <a:ext cx="2725997" cy="5186794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1194954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1486</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>2554431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B19B81-DB75-E216-6A66-D92DBD0B941E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1948296" y="36316227"/>
+          <a:ext cx="4043119" cy="1359477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>456412</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>813599</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>22681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27EED42-D24B-68CE-0420-944FA37E13D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2420943" y="39399768"/>
+          <a:ext cx="3046016" cy="5221742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>218284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1015685</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1091408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0057A3-9F93-3235-B5EF-32CDA67E53D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12630548" y="27930082"/>
+          <a:ext cx="4101385" cy="873124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>525863</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466334</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2154A581-43FB-0446-4DDC-76C4FD27D359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13156411" y="39399767"/>
+          <a:ext cx="3026171" cy="5201809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2690812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBE866B-AB91-4712-90CC-9AA2B3CB04C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>292893</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>330993</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD8C62BB-0408-6F50-7099-67475DA8CB37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1265,7 +3605,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1488,13 +3828,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="45" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" customWidth="1"/>
+    <col min="2" max="2" width="24.1328125" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" customWidth="1"/>
     <col min="4" max="4" width="37.59765625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
@@ -1513,10 +3855,10 @@
     </row>
     <row r="2" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="5"/>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="8"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1528,7 +3870,7 @@
     <row r="3" spans="3:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="5"/>
       <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
       <c r="H3" s="7"/>
@@ -1548,10 +3890,10 @@
     </row>
     <row r="5" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="5"/>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="8"/>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
@@ -1561,7 +3903,7 @@
     <row r="6" spans="3:13" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
       <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="16"/>
       <c r="G6" s="12"/>
       <c r="H6" s="15"/>
@@ -1581,10 +3923,10 @@
     </row>
     <row r="8" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="5"/>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="38"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="17"/>
       <c r="G8" s="12"/>
       <c r="H8" s="15"/>
@@ -1595,7 +3937,7 @@
     <row r="9" spans="3:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="5"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="17"/>
       <c r="G9" s="12"/>
       <c r="H9" s="15"/>
@@ -1615,16 +3957,16 @@
     </row>
     <row r="11" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="5"/>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="40"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="8"/>
       <c r="L11" s="15"/>
       <c r="M11" s="12"/>
@@ -1632,11 +3974,11 @@
     <row r="12" spans="3:13" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="5"/>
       <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="16"/>
       <c r="K12" s="12"/>
       <c r="L12" s="15"/>
@@ -1656,10 +3998,10 @@
     </row>
     <row r="14" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="5"/>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="38"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="17"/>
       <c r="G14" s="12"/>
       <c r="H14" s="15"/>
@@ -1672,7 +4014,7 @@
     <row r="15" spans="3:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="5"/>
       <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="17"/>
       <c r="G15" s="12"/>
       <c r="H15" s="15"/>
@@ -1696,10 +4038,10 @@
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="5"/>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="38"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="18"/>
       <c r="G17" s="12"/>
       <c r="H17" s="15"/>
@@ -1712,7 +4054,7 @@
     <row r="18" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="5"/>
       <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="20"/>
       <c r="H18" s="15"/>
       <c r="I18" s="12"/>
@@ -1733,18 +4075,18 @@
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="5"/>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="41" t="s">
+      <c r="E20" s="44"/>
+      <c r="F20" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="39" t="s">
+      <c r="G20" s="40"/>
+      <c r="H20" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="40"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="17"/>
       <c r="K20" s="12"/>
       <c r="L20" s="15"/>
@@ -1753,11 +4095,11 @@
     <row r="21" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="5"/>
       <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="17"/>
       <c r="K21" s="12"/>
       <c r="L21" s="15"/>
@@ -1775,25 +4117,25 @@
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="5"/>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="38"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="9"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="10"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="39" t="s">
+      <c r="L23" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="40"/>
+      <c r="M23" s="42"/>
     </row>
     <row r="24" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="5"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="6"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -1801,7 +4143,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="23"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="36"/>
+      <c r="M24" s="37"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D25" s="13"/>
@@ -1814,10 +4156,10 @@
     <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="40"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="12"/>
       <c r="J26" s="15"/>
       <c r="K26" s="12"/>
@@ -1829,7 +4171,7 @@
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="12"/>
       <c r="J27" s="15"/>
       <c r="K27" s="12"/>
@@ -1847,15 +4189,15 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="38"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="9"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
@@ -1866,11 +4208,13 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="322.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="37"/>
       <c r="C30" s="25"/>
       <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="20"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -1888,44 +4232,46 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="41" t="s">
+      <c r="E32" s="44"/>
+      <c r="F32" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="37" t="s">
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="38"/>
+      <c r="M32" s="44"/>
     </row>
     <row r="33" spans="1:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="45"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="36"/>
       <c r="C33" s="17"/>
       <c r="D33" s="35"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="42"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="40"/>
       <c r="L33" s="35"/>
-      <c r="M33" s="43"/>
+      <c r="M33" s="36"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="21"/>
@@ -1937,46 +4283,33 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C35" s="5"/>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="40"/>
+      <c r="E35" s="42"/>
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:13" ht="213.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="5"/>
       <c r="D36" s="35"/>
-      <c r="E36" s="36"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="12"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
       <c r="H38" s="35"/>
-      <c r="I38" s="43"/>
+      <c r="I38" s="36"/>
     </row>
     <row r="91" ht="0.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H11:I11"/>
@@ -1993,12 +4326,25 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2009,18 +4355,548 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DB12A5-2734-4A80-B355-23ECE7ADE458}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="46">
+        <v>41.73</v>
+      </c>
+      <c r="B1" s="46">
+        <v>36.75</v>
+      </c>
+      <c r="C1" s="46">
+        <v>-60.09</v>
+      </c>
+      <c r="D1" s="46">
+        <v>-57.97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="46">
+        <v>41.75</v>
+      </c>
+      <c r="B2" s="46">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="C2" s="46">
+        <v>-57.08</v>
+      </c>
+      <c r="D2" s="46">
+        <v>-54.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="46">
+        <v>41.79</v>
+      </c>
+      <c r="B3" s="46">
+        <v>-11.53</v>
+      </c>
+      <c r="C3" s="46">
+        <v>-53.06</v>
+      </c>
+      <c r="D3" s="46">
+        <v>-50.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="46">
+        <v>41.82</v>
+      </c>
+      <c r="B4" s="46">
+        <v>-32.229999999999997</v>
+      </c>
+      <c r="C4" s="46">
+        <v>-50.05</v>
+      </c>
+      <c r="D4" s="46">
+        <v>-47.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="46">
+        <v>22.48</v>
+      </c>
+      <c r="B5" s="46">
+        <v>15.08</v>
+      </c>
+      <c r="C5" s="46">
+        <v>-57.26</v>
+      </c>
+      <c r="D5" s="46">
+        <v>-55.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="46">
+        <v>16.07</v>
+      </c>
+      <c r="B6" s="46">
+        <v>0.96</v>
+      </c>
+      <c r="C6" s="46">
+        <v>-55.32</v>
+      </c>
+      <c r="D6" s="46">
+        <v>-53.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="46">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="B7" s="46">
+        <v>14.43</v>
+      </c>
+      <c r="C7" s="46">
+        <v>-57.39</v>
+      </c>
+      <c r="D7" s="46">
+        <v>-55.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="46">
+        <v>-9.67</v>
+      </c>
+      <c r="B8" s="46">
+        <v>34.14</v>
+      </c>
+      <c r="C8" s="46">
+        <v>-60.59</v>
+      </c>
+      <c r="D8" s="46">
+        <v>-58.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="46">
+        <v>-9.65</v>
+      </c>
+      <c r="B9" s="46">
+        <v>13.45</v>
+      </c>
+      <c r="C9" s="46">
+        <v>-57.58</v>
+      </c>
+      <c r="D9" s="46">
+        <v>-55.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="46">
+        <v>-9.61</v>
+      </c>
+      <c r="B10" s="46">
+        <v>-14.14</v>
+      </c>
+      <c r="C10" s="46">
+        <v>-53.56</v>
+      </c>
+      <c r="D10" s="46">
+        <v>-51.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A11" s="46">
+        <v>-9.58</v>
+      </c>
+      <c r="B11" s="46">
+        <v>-34.83</v>
+      </c>
+      <c r="C11" s="46">
+        <v>-50.55</v>
+      </c>
+      <c r="D11" s="46">
+        <v>-48.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="46">
+        <v>45.4</v>
+      </c>
+      <c r="B12" s="46">
+        <v>38.53</v>
+      </c>
+      <c r="C12" s="46">
+        <v>-55.22</v>
+      </c>
+      <c r="D12" s="46">
+        <v>-53.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A13" s="46">
+        <v>45.43</v>
+      </c>
+      <c r="B13" s="46">
+        <v>17.84</v>
+      </c>
+      <c r="C13" s="46">
+        <v>-52.21</v>
+      </c>
+      <c r="D13" s="46">
+        <v>-50.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A14" s="46">
+        <v>45.47</v>
+      </c>
+      <c r="B14" s="46">
+        <v>-9.75</v>
+      </c>
+      <c r="C14" s="46">
+        <v>-48.19</v>
+      </c>
+      <c r="D14" s="46">
+        <v>-46.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A15" s="46">
+        <v>45.49</v>
+      </c>
+      <c r="B15" s="46">
+        <v>-30.44</v>
+      </c>
+      <c r="C15" s="46">
+        <v>-45.18</v>
+      </c>
+      <c r="D15" s="46">
+        <v>-43.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A16" s="46">
+        <v>26.16</v>
+      </c>
+      <c r="B16" s="46">
+        <v>16.86</v>
+      </c>
+      <c r="C16" s="46">
+        <v>-52.4</v>
+      </c>
+      <c r="D16" s="46">
+        <v>-50.29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A17" s="46">
+        <v>19.75</v>
+      </c>
+      <c r="B17" s="46">
+        <v>2.74</v>
+      </c>
+      <c r="C17" s="46">
+        <v>-50.45</v>
+      </c>
+      <c r="D17" s="46">
+        <v>-48.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A18" s="46">
+        <v>13.31</v>
+      </c>
+      <c r="B18" s="46">
+        <v>16.21</v>
+      </c>
+      <c r="C18" s="46">
+        <v>-52.52</v>
+      </c>
+      <c r="D18" s="46">
+        <v>-50.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A19" s="46">
+        <v>-5.99</v>
+      </c>
+      <c r="B19" s="46">
+        <v>35.92</v>
+      </c>
+      <c r="C19" s="46">
+        <v>-55.72</v>
+      </c>
+      <c r="D19" s="46">
+        <v>-53.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A20" s="46">
+        <v>-5.97</v>
+      </c>
+      <c r="B20" s="46">
+        <v>15.23</v>
+      </c>
+      <c r="C20" s="46">
+        <v>-52.71</v>
+      </c>
+      <c r="D20" s="46">
+        <v>-50.61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A21" s="46">
+        <v>-5.93</v>
+      </c>
+      <c r="B21" s="46">
+        <v>-12.36</v>
+      </c>
+      <c r="C21" s="46">
+        <v>-48.69</v>
+      </c>
+      <c r="D21" s="46">
+        <v>-46.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="46">
+        <v>-5.91</v>
+      </c>
+      <c r="B22" s="46">
+        <v>-33.049999999999997</v>
+      </c>
+      <c r="C22" s="46">
+        <v>-45.68</v>
+      </c>
+      <c r="D22" s="46">
+        <v>-43.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f>A1/D1</f>
+        <v>-0.71985509746420562</v>
+      </c>
+      <c r="B24">
+        <f>B1/D1</f>
+        <v>-0.63394859410039672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f t="shared" ref="A25:A46" si="0">A2/D2</f>
+        <v>-0.75964337700145557</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:B45" si="1">B2/D2</f>
+        <v>-0.2922125181950509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>-0.82005494505494503</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>0.22625588697017268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>-0.87215849843587068</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>0.67215849843587061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>-0.40761559383499546</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>-0.27343608340888487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>-0.30201090020672805</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>-1.8041721480924637E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>-0.17420405209840811</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>-0.26103473227206947</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>0.16538395758508637</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>-0.58388917393535145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>0.17399927875946627</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>-0.24251712946267578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>0.18674698795180722</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>0.27477652545666537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>0.19772961816305468</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>0.7188854489164086</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>-0.85482959894558463</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>-0.72547542835624179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>-0.90660546797046493</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>-0.35601676312113351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>-0.9863340563991323</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>0.21149674620390455</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>-1.0556973775818055</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>0.70642840566256671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>-0.52018293895406642</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>-0.33525551799562536</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>-0.40847983453981385</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>-5.6670113753877975E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>-0.26398254660848869</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>-0.32149940499801666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>0.11173288565566127</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>-0.67002424920723747</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>0.11796087729697688</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>-0.30092867022327602</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>0.12725321888412017</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>0.26523605150214591</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>0.13558155540261527</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>0.75820142234457433</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2028,7 +4904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA4FA80-9370-4F95-8930-41199F5C753B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="72" workbookViewId="0">
+      <selection sqref="A1:D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData/>
